--- a/Days 1-2/Case Study - Linked Chart.xlsx
+++ b/Days 1-2/Case Study - Linked Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Desktop\Stony Brook\Day 1-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpo64\Documents\GitHub\excel-analytics\Days 1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3014B6B2-90FE-4704-A3FC-9F8F285A6EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3636D803-40E5-43FA-92BC-D93C98AC8FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -214,7 +236,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mark</c:v>
+                  <c:v>Sarah</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -256,16 +278,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>470</c:v>
+                  <c:v>838</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>752</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>754</c:v>
+                  <c:v>873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1314,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1523,20 +1545,20 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="C9" cm="1">
         <f t="array" ref="C9:F9">VLOOKUP($B$9,$B$3:$F$6,{2,3,4,5},0)</f>
-        <v>470</v>
+        <v>838</v>
       </c>
       <c r="D9">
-        <v>752</v>
+        <v>461</v>
       </c>
       <c r="E9">
-        <v>425</v>
+        <v>646</v>
       </c>
       <c r="F9">
-        <v>754</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
